--- a/REGULAR/CANALOG, EUGENE V..xlsx
+++ b/REGULAR/CANALOG, EUGENE V..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\CHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783E630-E25B-4932-8351-0037511F9559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0E95C-CE92-4B46-9734-E2EB0684EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +208,18 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>DENTAL AIDE</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>3/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -907,7 +911,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1236,12 +1240,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1288,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1309,7 +1315,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>59</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1400,7 +1408,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>272.875</v>
+        <v>279.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1410,7 +1418,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>326.16500000000002</v>
+        <v>330.41500000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2716,15 +2724,19 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>44866</v>
+      </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -2732,15 +2744,19 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -2748,7 +2764,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -2764,15 +2782,19 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>44927</v>
+      </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -2780,15 +2802,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -2796,23 +2822,35 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>2</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -2828,7 +2866,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -2844,7 +2884,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -2860,7 +2902,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2876,7 +2920,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2892,7 +2938,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2908,7 +2956,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -2924,7 +2974,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3628,20 +3680,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
